--- a/Code/Results/Cases/Case_5_218/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_5_218/res_line/loading_percent.xlsx
@@ -421,43 +421,43 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>13.79482344608877</v>
+        <v>11.04585075083389</v>
       </c>
       <c r="C2">
-        <v>10.27263523451581</v>
+        <v>7.360301762512989</v>
       </c>
       <c r="D2">
-        <v>4.523823634939648</v>
+        <v>6.375954411399011</v>
       </c>
       <c r="E2">
-        <v>13.25821775842993</v>
+        <v>11.22302240966287</v>
       </c>
       <c r="F2">
-        <v>28.92881957067187</v>
+        <v>33.16469232162416</v>
       </c>
       <c r="G2">
         <v>0</v>
       </c>
       <c r="H2">
-        <v>4.251792669784106</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I2">
-        <v>19.70217170229557</v>
+        <v>26.03093852400601</v>
       </c>
       <c r="J2">
         <v>0</v>
       </c>
       <c r="K2">
-        <v>13.00568875635865</v>
+        <v>11.69856910908128</v>
       </c>
       <c r="L2">
         <v>0</v>
       </c>
       <c r="M2">
-        <v>15.30025052709017</v>
+        <v>15.07257873823612</v>
       </c>
       <c r="N2">
-        <v>14.11608435677553</v>
+        <v>20.84667234438747</v>
       </c>
       <c r="O2">
         <v>0</v>
@@ -468,43 +468,43 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>12.83283617199953</v>
+        <v>10.80082906769157</v>
       </c>
       <c r="C3">
-        <v>9.537897192633425</v>
+        <v>7.133769545368759</v>
       </c>
       <c r="D3">
-        <v>4.57145850514106</v>
+        <v>6.380980532588322</v>
       </c>
       <c r="E3">
-        <v>12.43101709964558</v>
+        <v>11.00936252128352</v>
       </c>
       <c r="F3">
-        <v>27.96999218935709</v>
+        <v>33.03285283925478</v>
       </c>
       <c r="G3">
         <v>0</v>
       </c>
       <c r="H3">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I3">
-        <v>19.4210290627853</v>
+        <v>26.03275416418871</v>
       </c>
       <c r="J3">
         <v>0</v>
       </c>
       <c r="K3">
-        <v>12.11763567635774</v>
+        <v>11.52957008164125</v>
       </c>
       <c r="L3">
         <v>0</v>
       </c>
       <c r="M3">
-        <v>14.24826581567349</v>
+        <v>14.91521557112782</v>
       </c>
       <c r="N3">
-        <v>14.27369409770684</v>
+        <v>20.89536727138235</v>
       </c>
       <c r="O3">
         <v>0</v>
@@ -515,43 +515,43 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>12.20987918022276</v>
+        <v>10.65085100784465</v>
       </c>
       <c r="C4">
-        <v>9.063664052623528</v>
+        <v>6.993376444673416</v>
       </c>
       <c r="D4">
-        <v>4.6005391305853</v>
+        <v>6.384089450744809</v>
       </c>
       <c r="E4">
-        <v>11.90747422161946</v>
+        <v>10.8798142531005</v>
       </c>
       <c r="F4">
-        <v>27.39053610213346</v>
+        <v>32.95988283099749</v>
       </c>
       <c r="G4">
         <v>0</v>
       </c>
       <c r="H4">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I4">
-        <v>19.26179018881187</v>
+        <v>26.03889924467063</v>
       </c>
       <c r="J4">
         <v>0</v>
       </c>
       <c r="K4">
-        <v>11.54322748797634</v>
+        <v>11.42787674318554</v>
       </c>
       <c r="L4">
         <v>0</v>
       </c>
       <c r="M4">
-        <v>13.56913924294249</v>
+        <v>14.82201611513336</v>
       </c>
       <c r="N4">
-        <v>14.37505090525807</v>
+        <v>20.92715163685552</v>
       </c>
       <c r="O4">
         <v>0</v>
@@ -562,43 +562,43 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>11.94781448224321</v>
+        <v>10.58994961172887</v>
       </c>
       <c r="C5">
-        <v>8.864533536134163</v>
+        <v>6.935939230037841</v>
       </c>
       <c r="D5">
-        <v>4.612363496277274</v>
+        <v>6.385362302922623</v>
       </c>
       <c r="E5">
-        <v>11.69032771109793</v>
+        <v>10.82751168497956</v>
       </c>
       <c r="F5">
-        <v>27.15694827139641</v>
+        <v>32.93217201055987</v>
       </c>
       <c r="G5">
         <v>0</v>
       </c>
       <c r="H5">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I5">
-        <v>19.20018387922051</v>
+        <v>26.04266711946319</v>
       </c>
       <c r="J5">
         <v>0</v>
       </c>
       <c r="K5">
-        <v>11.30175082916518</v>
+        <v>11.38701150192754</v>
       </c>
       <c r="L5">
         <v>0</v>
       </c>
       <c r="M5">
-        <v>13.28394211725054</v>
+        <v>14.78493821984134</v>
       </c>
       <c r="N5">
-        <v>14.41747935473642</v>
+        <v>20.94057831919088</v>
       </c>
       <c r="O5">
         <v>0</v>
@@ -609,43 +609,43 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>11.90380088753444</v>
+        <v>10.57985294228719</v>
       </c>
       <c r="C6">
-        <v>8.831111265272302</v>
+        <v>6.926391260935559</v>
       </c>
       <c r="D6">
-        <v>4.614325782433499</v>
+        <v>6.385574023689522</v>
       </c>
       <c r="E6">
-        <v>11.6540461556031</v>
+        <v>10.81885869001654</v>
       </c>
       <c r="F6">
-        <v>27.11832144157071</v>
+        <v>32.92769344303189</v>
       </c>
       <c r="G6">
         <v>0</v>
       </c>
       <c r="H6">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I6">
-        <v>19.19015013672488</v>
+        <v>26.04336905068478</v>
       </c>
       <c r="J6">
         <v>0</v>
       </c>
       <c r="K6">
-        <v>11.26120479412407</v>
+        <v>11.38026219553631</v>
       </c>
       <c r="L6">
         <v>0</v>
       </c>
       <c r="M6">
-        <v>13.23607242275621</v>
+        <v>14.77883708267218</v>
       </c>
       <c r="N6">
-        <v>14.42459174910356</v>
+        <v>20.94283646129544</v>
       </c>
       <c r="O6">
         <v>0</v>
@@ -656,43 +656,43 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>12.20637821406163</v>
+        <v>10.65002866439173</v>
       </c>
       <c r="C7">
-        <v>9.061002388586397</v>
+        <v>6.992602602544845</v>
       </c>
       <c r="D7">
-        <v>4.600698684122255</v>
+        <v>6.384106592574565</v>
       </c>
       <c r="E7">
-        <v>11.90456087505243</v>
+        <v>10.87910679910252</v>
       </c>
       <c r="F7">
-        <v>27.38737525579748</v>
+        <v>32.95950089161897</v>
       </c>
       <c r="G7">
         <v>0</v>
       </c>
       <c r="H7">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I7">
-        <v>19.26094615464915</v>
+        <v>26.0389449449432</v>
       </c>
       <c r="J7">
         <v>0</v>
       </c>
       <c r="K7">
-        <v>11.54000090745838</v>
+        <v>11.42732321847624</v>
       </c>
       <c r="L7">
         <v>0</v>
       </c>
       <c r="M7">
-        <v>13.56532730285745</v>
+        <v>14.82151236614231</v>
       </c>
       <c r="N7">
-        <v>14.37561859042653</v>
+        <v>20.92733079318943</v>
       </c>
       <c r="O7">
         <v>0</v>
@@ -703,43 +703,43 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>13.46978081481283</v>
+        <v>10.96132898094371</v>
       </c>
       <c r="C8">
-        <v>10.02404949326578</v>
+        <v>7.282522458804448</v>
       </c>
       <c r="D8">
-        <v>4.540292783680933</v>
+        <v>6.377682791312759</v>
       </c>
       <c r="E8">
-        <v>12.97631007465188</v>
+        <v>11.14905838544905</v>
       </c>
       <c r="F8">
-        <v>28.5964162314116</v>
+        <v>33.11758968645424</v>
       </c>
       <c r="G8">
         <v>0</v>
       </c>
       <c r="H8">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I8">
-        <v>19.60240875100805</v>
+        <v>26.03051996356074</v>
       </c>
       <c r="J8">
         <v>0</v>
       </c>
       <c r="K8">
-        <v>12.70549032152118</v>
+        <v>11.63990096958488</v>
       </c>
       <c r="L8">
         <v>0</v>
       </c>
       <c r="M8">
-        <v>14.94435597806732</v>
+        <v>15.01763489671001</v>
       </c>
       <c r="N8">
-        <v>14.16945889997166</v>
+        <v>20.86307112705746</v>
       </c>
       <c r="O8">
         <v>0</v>
@@ -750,43 +750,43 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>15.69506364002529</v>
+        <v>11.57128493093081</v>
       </c>
       <c r="C9">
-        <v>11.73266278664536</v>
+        <v>7.836600268301091</v>
       </c>
       <c r="D9">
-        <v>4.419729186871832</v>
+        <v>6.365257980602368</v>
       </c>
       <c r="E9">
-        <v>15.17858996162508</v>
+        <v>11.68807213035458</v>
       </c>
       <c r="F9">
-        <v>31.0325092992695</v>
+        <v>33.48998794826809</v>
       </c>
       <c r="G9">
         <v>0</v>
       </c>
       <c r="H9">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I9">
-        <v>20.38165237502645</v>
+        <v>26.05394463608835</v>
       </c>
       <c r="J9">
         <v>0</v>
       </c>
       <c r="K9">
-        <v>14.76338527731292</v>
+        <v>12.07078432531332</v>
       </c>
       <c r="L9">
         <v>0</v>
       </c>
       <c r="M9">
-        <v>17.39003117230746</v>
+        <v>15.42748970908411</v>
       </c>
       <c r="N9">
-        <v>13.80300994856614</v>
+        <v>20.75201045912927</v>
       </c>
       <c r="O9">
         <v>0</v>
@@ -797,43 +797,43 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>17.18204165745606</v>
+        <v>12.01373217978522</v>
       </c>
       <c r="C10">
-        <v>12.88346324193264</v>
+        <v>8.229830199128955</v>
       </c>
       <c r="D10">
-        <v>4.328673428739357</v>
+        <v>6.356221315688481</v>
       </c>
       <c r="E10">
-        <v>16.70209440222392</v>
+        <v>12.08552788236733</v>
       </c>
       <c r="F10">
-        <v>32.8529715001476</v>
+        <v>33.80020555910967</v>
       </c>
       <c r="G10">
         <v>0</v>
       </c>
       <c r="H10">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I10">
-        <v>21.02565397111058</v>
+        <v>26.09552222169432</v>
       </c>
       <c r="J10">
         <v>0</v>
       </c>
       <c r="K10">
-        <v>16.14196241169584</v>
+        <v>12.39263563988687</v>
       </c>
       <c r="L10">
         <v>0</v>
       </c>
       <c r="M10">
-        <v>19.0366245023618</v>
+        <v>15.74137279413268</v>
       </c>
       <c r="N10">
-        <v>13.55922910999995</v>
+        <v>20.67951803343161</v>
       </c>
       <c r="O10">
         <v>0</v>
@@ -844,43 +844,43 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>17.82775998894631</v>
+        <v>12.21272592008276</v>
       </c>
       <c r="C11">
-        <v>13.38556922089236</v>
+        <v>8.40479135985964</v>
       </c>
       <c r="D11">
-        <v>4.286414199913102</v>
+        <v>6.352127407666846</v>
       </c>
       <c r="E11">
-        <v>17.36933080416397</v>
+        <v>12.26575487718646</v>
       </c>
       <c r="F11">
-        <v>33.68661603307518</v>
+        <v>33.94892998160799</v>
       </c>
       <c r="G11">
         <v>0</v>
       </c>
       <c r="H11">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I11">
-        <v>21.335174640594</v>
+        <v>26.11971907741258</v>
       </c>
       <c r="J11">
         <v>0</v>
       </c>
       <c r="K11">
-        <v>16.74146593999308</v>
+        <v>12.53951656960185</v>
       </c>
       <c r="L11">
         <v>0</v>
       </c>
       <c r="M11">
-        <v>19.75489572734525</v>
+        <v>15.88635823635127</v>
       </c>
       <c r="N11">
-        <v>13.45450661586862</v>
+        <v>20.64851411875027</v>
       </c>
       <c r="O11">
         <v>0</v>
@@ -891,43 +891,43 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>18.06798193011451</v>
+        <v>12.28767135265407</v>
       </c>
       <c r="C12">
-        <v>13.57274262625404</v>
+        <v>8.470413656892479</v>
       </c>
       <c r="D12">
-        <v>4.270263540378787</v>
+        <v>6.350579371116578</v>
       </c>
       <c r="E12">
-        <v>17.6184660537787</v>
+        <v>12.33384801025654</v>
       </c>
       <c r="F12">
-        <v>34.00304269012057</v>
+        <v>34.00630835720625</v>
       </c>
       <c r="G12">
         <v>0</v>
       </c>
       <c r="H12">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I12">
-        <v>21.45485288187386</v>
+        <v>26.12963952796233</v>
       </c>
       <c r="J12">
         <v>0</v>
       </c>
       <c r="K12">
-        <v>16.96462891883918</v>
+        <v>12.59514833144282</v>
       </c>
       <c r="L12">
         <v>0</v>
       </c>
       <c r="M12">
-        <v>20.02262702095542</v>
+        <v>15.9415274915184</v>
       </c>
       <c r="N12">
-        <v>13.4158050058491</v>
+        <v>20.6370574388409</v>
       </c>
       <c r="O12">
         <v>0</v>
@@ -938,43 +938,43 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>18.01643497538954</v>
+        <v>12.27154995313977</v>
       </c>
       <c r="C13">
-        <v>13.53256134529935</v>
+        <v>8.456309822894889</v>
       </c>
       <c r="D13">
-        <v>4.273748927406708</v>
+        <v>6.350912672058935</v>
       </c>
       <c r="E13">
-        <v>17.56496438532085</v>
+        <v>12.31919093300028</v>
       </c>
       <c r="F13">
-        <v>33.93486173811181</v>
+        <v>33.99390432991131</v>
       </c>
       <c r="G13">
         <v>0</v>
       </c>
       <c r="H13">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I13">
-        <v>21.42896670470254</v>
+        <v>26.1274693254747</v>
       </c>
       <c r="J13">
         <v>0</v>
       </c>
       <c r="K13">
-        <v>16.91673632885311</v>
+        <v>12.5831674203294</v>
       </c>
       <c r="L13">
         <v>0</v>
       </c>
       <c r="M13">
-        <v>19.96515311488895</v>
+        <v>15.92963474674578</v>
       </c>
       <c r="N13">
-        <v>13.42409646523471</v>
+        <v>20.63951221494228</v>
       </c>
       <c r="O13">
         <v>0</v>
@@ -985,43 +985,43 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>17.84760860675977</v>
+        <v>12.21890037476049</v>
       </c>
       <c r="C14">
-        <v>13.4010267862995</v>
+        <v>8.410203169928252</v>
       </c>
       <c r="D14">
-        <v>4.28508861020289</v>
+        <v>6.352000006038806</v>
       </c>
       <c r="E14">
-        <v>17.38989701912672</v>
+        <v>12.27136044431339</v>
       </c>
       <c r="F14">
-        <v>33.71263384989692</v>
+        <v>33.9536294992811</v>
       </c>
       <c r="G14">
         <v>0</v>
       </c>
       <c r="H14">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I14">
-        <v>21.34497061434466</v>
+        <v>26.12052006899685</v>
       </c>
       <c r="J14">
         <v>0</v>
       </c>
       <c r="K14">
-        <v>16.75990227548875</v>
+        <v>12.54409352177279</v>
       </c>
       <c r="L14">
         <v>0</v>
       </c>
       <c r="M14">
-        <v>19.77700658131722</v>
+        <v>15.89089198920226</v>
       </c>
       <c r="N14">
-        <v>13.45130306251282</v>
+        <v>20.64756588190275</v>
       </c>
       <c r="O14">
         <v>0</v>
@@ -1032,43 +1032,43 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>17.74364160440901</v>
+        <v>12.18659537043947</v>
       </c>
       <c r="C15">
-        <v>13.32007573431349</v>
+        <v>8.381877352659052</v>
       </c>
       <c r="D15">
-        <v>4.292014349950376</v>
+        <v>6.352666315120602</v>
       </c>
       <c r="E15">
-        <v>17.28220877381485</v>
+        <v>12.24204064014908</v>
       </c>
       <c r="F15">
-        <v>33.57660906104402</v>
+        <v>33.92909696109533</v>
       </c>
       <c r="G15">
         <v>0</v>
       </c>
       <c r="H15">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I15">
-        <v>21.29384494133607</v>
+        <v>26.11636204184828</v>
       </c>
       <c r="J15">
         <v>0</v>
       </c>
       <c r="K15">
-        <v>16.66333832120874</v>
+        <v>12.52015943706397</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
       <c r="M15">
-        <v>19.66121138909448</v>
+        <v>15.86719415273363</v>
       </c>
       <c r="N15">
-        <v>13.46809434965103</v>
+        <v>20.65253595117035</v>
       </c>
       <c r="O15">
         <v>0</v>
@@ -1079,43 +1079,43 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>17.13923436499663</v>
+        <v>12.00067453443097</v>
       </c>
       <c r="C16">
-        <v>12.85022833104707</v>
+        <v>8.218311214408192</v>
       </c>
       <c r="D16">
-        <v>4.331416024653624</v>
+        <v>6.35648918591551</v>
       </c>
       <c r="E16">
-        <v>16.65798441347964</v>
+        <v>12.07373178104736</v>
       </c>
       <c r="F16">
-        <v>32.79859648421477</v>
+        <v>33.79063624652447</v>
       </c>
       <c r="G16">
         <v>0</v>
       </c>
       <c r="H16">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I16">
-        <v>21.00576665855273</v>
+        <v>26.09404704614768</v>
       </c>
       <c r="J16">
         <v>0</v>
       </c>
       <c r="K16">
-        <v>16.10223734535572</v>
+        <v>12.38304121657602</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
       <c r="M16">
-        <v>18.98907812678384</v>
+        <v>15.73193764151433</v>
       </c>
       <c r="N16">
-        <v>13.56620268572847</v>
+        <v>20.6815839252436</v>
       </c>
       <c r="O16">
         <v>0</v>
@@ -1126,43 +1126,43 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>16.76066523369057</v>
+        <v>11.88597494150143</v>
       </c>
       <c r="C17">
-        <v>12.55658915074002</v>
+        <v>8.116913904412778</v>
       </c>
       <c r="D17">
-        <v>4.355354449232917</v>
+        <v>6.358838586993137</v>
       </c>
       <c r="E17">
-        <v>16.26855347089022</v>
+        <v>11.9702796125653</v>
       </c>
       <c r="F17">
-        <v>32.32267238247469</v>
+        <v>33.7076194115527</v>
       </c>
       <c r="G17">
         <v>0</v>
       </c>
       <c r="H17">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I17">
-        <v>20.83334184616431</v>
+        <v>26.08170935970577</v>
       </c>
       <c r="J17">
         <v>0</v>
       </c>
       <c r="K17">
-        <v>15.75102550622543</v>
+        <v>12.29900324166704</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17">
-        <v>18.56897561296691</v>
+        <v>15.64948984815154</v>
       </c>
       <c r="N17">
-        <v>13.62801471060552</v>
+        <v>20.69990936259458</v>
       </c>
       <c r="O17">
         <v>0</v>
@@ -1173,43 +1173,43 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>16.54002356269703</v>
+        <v>11.81979292431559</v>
       </c>
       <c r="C18">
-        <v>12.38567407197367</v>
+        <v>8.058227384880203</v>
       </c>
       <c r="D18">
-        <v>4.369046181679066</v>
+        <v>6.360191504110305</v>
       </c>
       <c r="E18">
-        <v>16.04212165460153</v>
+        <v>11.91072638856319</v>
       </c>
       <c r="F18">
-        <v>32.04945188925427</v>
+        <v>33.66058829691567</v>
       </c>
       <c r="G18">
         <v>0</v>
       </c>
       <c r="H18">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I18">
-        <v>20.7357208250261</v>
+        <v>26.07511047416149</v>
       </c>
       <c r="J18">
         <v>0</v>
       </c>
       <c r="K18">
-        <v>15.54641072778244</v>
+        <v>12.25071426368483</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
       <c r="M18">
-        <v>18.32443673119028</v>
+        <v>15.60227797015992</v>
       </c>
       <c r="N18">
-        <v>13.6641439801706</v>
+        <v>20.71063539514311</v>
       </c>
       <c r="O18">
         <v>0</v>
@@ -1220,43 +1220,43 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>16.46481673614362</v>
+        <v>11.79735136555714</v>
       </c>
       <c r="C19">
-        <v>12.32745465307801</v>
+        <v>8.03829654975589</v>
       </c>
       <c r="D19">
-        <v>4.373669532961931</v>
+        <v>6.36064986002314</v>
       </c>
       <c r="E19">
-        <v>15.96503124285013</v>
+        <v>11.89055630057129</v>
       </c>
       <c r="F19">
-        <v>31.95703540652985</v>
+        <v>33.6447886814061</v>
       </c>
       <c r="G19">
         <v>0</v>
       </c>
       <c r="H19">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I19">
-        <v>20.70293222962502</v>
+        <v>26.07296169058808</v>
       </c>
       <c r="J19">
         <v>0</v>
       </c>
       <c r="K19">
-        <v>15.47668056215434</v>
+        <v>12.2343743347574</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>18.24113607168902</v>
+        <v>15.58633040763114</v>
       </c>
       <c r="N19">
-        <v>13.67647389939004</v>
+        <v>20.71429894206963</v>
       </c>
       <c r="O19">
         <v>0</v>
@@ -1267,43 +1267,43 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>16.8012637348489</v>
+        <v>11.89820723574966</v>
       </c>
       <c r="C20">
-        <v>12.58805597794919</v>
+        <v>8.1277461593296</v>
       </c>
       <c r="D20">
-        <v>4.352814324485483</v>
+        <v>6.358588324649907</v>
       </c>
       <c r="E20">
-        <v>16.31026049810792</v>
+        <v>11.98129800695614</v>
       </c>
       <c r="F20">
-        <v>32.37328215641205</v>
+        <v>33.71638262682124</v>
       </c>
       <c r="G20">
         <v>0</v>
       </c>
       <c r="H20">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I20">
-        <v>20.85153540309497</v>
+        <v>26.08297125865548</v>
       </c>
       <c r="J20">
         <v>0</v>
       </c>
       <c r="K20">
-        <v>15.7886816172828</v>
+        <v>12.30794473033931</v>
       </c>
       <c r="L20">
         <v>0</v>
       </c>
       <c r="M20">
-        <v>18.61399597902772</v>
+        <v>15.65824519176658</v>
       </c>
       <c r="N20">
-        <v>13.62137458585224</v>
+        <v>20.69793936605076</v>
       </c>
       <c r="O20">
         <v>0</v>
@@ -1314,43 +1314,43 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>17.89731264269838</v>
+        <v>12.23437656082089</v>
       </c>
       <c r="C21">
-        <v>13.43974113457401</v>
+        <v>8.423763462058115</v>
       </c>
       <c r="D21">
-        <v>4.281762121815672</v>
+        <v>6.351680570512888</v>
       </c>
       <c r="E21">
-        <v>17.44141290439993</v>
+        <v>12.28541417822954</v>
       </c>
       <c r="F21">
-        <v>33.77788753636963</v>
+        <v>33.96543071460216</v>
       </c>
       <c r="G21">
         <v>0</v>
       </c>
       <c r="H21">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I21">
-        <v>21.36957453655948</v>
+        <v>26.1225406919414</v>
       </c>
       <c r="J21">
         <v>0</v>
       </c>
       <c r="K21">
-        <v>16.80607191939521</v>
+        <v>12.55557061151389</v>
       </c>
       <c r="L21">
         <v>0</v>
       </c>
       <c r="M21">
-        <v>19.83238408782116</v>
+        <v>15.90226484147329</v>
       </c>
       <c r="N21">
-        <v>13.44328533745637</v>
+        <v>20.64519262089702</v>
       </c>
       <c r="O21">
         <v>0</v>
@@ -1361,43 +1361,43 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>18.58865656740569</v>
+        <v>12.45166364124577</v>
       </c>
       <c r="C22">
-        <v>13.97915549623255</v>
+        <v>8.613519207751352</v>
       </c>
       <c r="D22">
-        <v>4.234447703349234</v>
+        <v>6.347178906249054</v>
       </c>
       <c r="E22">
-        <v>18.1601920248329</v>
+        <v>12.48323786679784</v>
       </c>
       <c r="F22">
-        <v>34.7002247196469</v>
+        <v>34.13435745252261</v>
       </c>
       <c r="G22">
         <v>0</v>
       </c>
       <c r="H22">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I22">
-        <v>21.72258488095108</v>
+        <v>26.15281621964313</v>
       </c>
       <c r="J22">
         <v>0</v>
       </c>
       <c r="K22">
-        <v>17.44858060530956</v>
+        <v>12.71744844515387</v>
       </c>
       <c r="L22">
         <v>0</v>
       </c>
       <c r="M22">
-        <v>20.60391332321683</v>
+        <v>16.06327574614066</v>
       </c>
       <c r="N22">
-        <v>13.33249606093957</v>
+        <v>20.61237400298425</v>
       </c>
       <c r="O22">
         <v>0</v>
@@ -1408,43 +1408,43 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>18.2219177979872</v>
+        <v>12.33594033661308</v>
       </c>
       <c r="C23">
-        <v>13.6927942054086</v>
+        <v>8.512602981347941</v>
       </c>
       <c r="D23">
-        <v>4.259790510564294</v>
+        <v>6.349580408270223</v>
       </c>
       <c r="E23">
-        <v>17.77837716733719</v>
+        <v>12.37776391638431</v>
       </c>
       <c r="F23">
-        <v>34.20756172707416</v>
+        <v>34.04364620360418</v>
       </c>
       <c r="G23">
         <v>0</v>
       </c>
       <c r="H23">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I23">
-        <v>21.53282367667416</v>
+        <v>26.13625451100947</v>
       </c>
       <c r="J23">
         <v>0</v>
       </c>
       <c r="K23">
-        <v>17.10767175409667</v>
+        <v>12.63106571894821</v>
       </c>
       <c r="L23">
         <v>0</v>
       </c>
       <c r="M23">
-        <v>20.19434116227627</v>
+        <v>15.9772175853352</v>
       </c>
       <c r="N23">
-        <v>13.39108898551386</v>
+        <v>20.62973850494506</v>
       </c>
       <c r="O23">
         <v>0</v>
@@ -1455,43 +1455,43 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>16.78291849709517</v>
+        <v>11.89267775581735</v>
       </c>
       <c r="C24">
-        <v>12.57383636865409</v>
+        <v>8.12285011221071</v>
       </c>
       <c r="D24">
-        <v>4.353962933323166</v>
+        <v>6.358701461303211</v>
       </c>
       <c r="E24">
-        <v>16.29141268460918</v>
+        <v>11.97631682584299</v>
       </c>
       <c r="F24">
-        <v>32.35040024418915</v>
+        <v>33.71241860535039</v>
       </c>
       <c r="G24">
         <v>0</v>
       </c>
       <c r="H24">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I24">
-        <v>20.84330540451663</v>
+        <v>26.08239921441788</v>
       </c>
       <c r="J24">
         <v>0</v>
       </c>
       <c r="K24">
-        <v>15.77166570303449</v>
+        <v>12.30390219931331</v>
       </c>
       <c r="L24">
         <v>0</v>
       </c>
       <c r="M24">
-        <v>18.59365167888726</v>
+        <v>15.65428631009758</v>
       </c>
       <c r="N24">
-        <v>13.62437474499188</v>
+        <v>20.69882940802636</v>
       </c>
       <c r="O24">
         <v>0</v>
@@ -1502,43 +1502,43 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>15.1194874056166</v>
+        <v>11.4069011802228</v>
       </c>
       <c r="C25">
-        <v>11.28919331979006</v>
+        <v>7.688803054119189</v>
       </c>
       <c r="D25">
-        <v>4.452686901376583</v>
+        <v>6.368602145547875</v>
       </c>
       <c r="E25">
-        <v>14.59355952178056</v>
+        <v>11.54168738711931</v>
       </c>
       <c r="F25">
-        <v>30.36755983603482</v>
+        <v>33.38270164401249</v>
       </c>
       <c r="G25">
         <v>0</v>
       </c>
       <c r="H25">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I25">
-        <v>20.15862607149329</v>
+        <v>26.04332712664095</v>
       </c>
       <c r="J25">
         <v>0</v>
       </c>
       <c r="K25">
-        <v>14.23050573482941</v>
+        <v>11.9530562154802</v>
       </c>
       <c r="L25">
         <v>0</v>
       </c>
       <c r="M25">
-        <v>16.75536954066729</v>
+        <v>15.31417686407633</v>
       </c>
       <c r="N25">
-        <v>13.89787062939049</v>
+        <v>20.78045583283116</v>
       </c>
       <c r="O25">
         <v>0</v>

--- a/Code/Results/Cases/Case_5_218/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_5_218/res_line/loading_percent.xlsx
@@ -421,43 +421,43 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>11.04585075083389</v>
+        <v>13.79482344608883</v>
       </c>
       <c r="C2">
-        <v>7.360301762512989</v>
+        <v>10.27263523451601</v>
       </c>
       <c r="D2">
-        <v>6.375954411399011</v>
+        <v>4.523823634939643</v>
       </c>
       <c r="E2">
-        <v>11.22302240966287</v>
+        <v>13.25821775842996</v>
       </c>
       <c r="F2">
-        <v>33.16469232162416</v>
+        <v>28.92881957067165</v>
       </c>
       <c r="G2">
         <v>0</v>
       </c>
       <c r="H2">
-        <v>7.344005520526261</v>
+        <v>4.251792669784106</v>
       </c>
       <c r="I2">
-        <v>26.03093852400601</v>
+        <v>19.70217170229546</v>
       </c>
       <c r="J2">
         <v>0</v>
       </c>
       <c r="K2">
-        <v>11.69856910908128</v>
+        <v>13.00568875635877</v>
       </c>
       <c r="L2">
         <v>0</v>
       </c>
       <c r="M2">
-        <v>15.07257873823612</v>
+        <v>15.30025052709024</v>
       </c>
       <c r="N2">
-        <v>20.84667234438747</v>
+        <v>14.11608435677536</v>
       </c>
       <c r="O2">
         <v>0</v>
@@ -468,43 +468,43 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>10.80082906769157</v>
+        <v>12.8328361719995</v>
       </c>
       <c r="C3">
-        <v>7.133769545368759</v>
+        <v>9.537897192633377</v>
       </c>
       <c r="D3">
-        <v>6.380980532588322</v>
+        <v>4.571458505141262</v>
       </c>
       <c r="E3">
-        <v>11.00936252128352</v>
+        <v>12.43101709964557</v>
       </c>
       <c r="F3">
-        <v>33.03285283925478</v>
+        <v>27.96999218935714</v>
       </c>
       <c r="G3">
         <v>0</v>
       </c>
       <c r="H3">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I3">
-        <v>26.03275416418871</v>
+        <v>19.42102906278543</v>
       </c>
       <c r="J3">
         <v>0</v>
       </c>
       <c r="K3">
-        <v>11.52957008164125</v>
+        <v>12.11763567635772</v>
       </c>
       <c r="L3">
         <v>0</v>
       </c>
       <c r="M3">
-        <v>14.91521557112782</v>
+        <v>14.24826581567347</v>
       </c>
       <c r="N3">
-        <v>20.89536727138235</v>
+        <v>14.27369409770693</v>
       </c>
       <c r="O3">
         <v>0</v>
@@ -515,43 +515,43 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>10.65085100784465</v>
+        <v>12.20987918022286</v>
       </c>
       <c r="C4">
-        <v>6.993376444673416</v>
+        <v>9.063664052623471</v>
       </c>
       <c r="D4">
-        <v>6.384089450744809</v>
+        <v>4.600539130585364</v>
       </c>
       <c r="E4">
-        <v>10.8798142531005</v>
+        <v>11.90747422161946</v>
       </c>
       <c r="F4">
-        <v>32.95988283099749</v>
+        <v>27.39053610213346</v>
       </c>
       <c r="G4">
         <v>0</v>
       </c>
       <c r="H4">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I4">
-        <v>26.03889924467063</v>
+        <v>19.26179018881182</v>
       </c>
       <c r="J4">
         <v>0</v>
       </c>
       <c r="K4">
-        <v>11.42787674318554</v>
+        <v>11.54322748797636</v>
       </c>
       <c r="L4">
         <v>0</v>
       </c>
       <c r="M4">
-        <v>14.82201611513336</v>
+        <v>13.56913924294251</v>
       </c>
       <c r="N4">
-        <v>20.92715163685552</v>
+        <v>14.37505090525803</v>
       </c>
       <c r="O4">
         <v>0</v>
@@ -562,43 +562,43 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>10.58994961172887</v>
+        <v>11.9478144822432</v>
       </c>
       <c r="C5">
-        <v>6.935939230037841</v>
+        <v>8.864533536134168</v>
       </c>
       <c r="D5">
-        <v>6.385362302922623</v>
+        <v>4.612363496277476</v>
       </c>
       <c r="E5">
-        <v>10.82751168497956</v>
+        <v>11.69032771109794</v>
       </c>
       <c r="F5">
-        <v>32.93217201055987</v>
+        <v>27.15694827139641</v>
       </c>
       <c r="G5">
         <v>0</v>
       </c>
       <c r="H5">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I5">
-        <v>26.04266711946319</v>
+        <v>19.20018387922064</v>
       </c>
       <c r="J5">
         <v>0</v>
       </c>
       <c r="K5">
-        <v>11.38701150192754</v>
+        <v>11.30175082916518</v>
       </c>
       <c r="L5">
         <v>0</v>
       </c>
       <c r="M5">
-        <v>14.78493821984134</v>
+        <v>13.28394211725051</v>
       </c>
       <c r="N5">
-        <v>20.94057831919088</v>
+        <v>14.41747935473652</v>
       </c>
       <c r="O5">
         <v>0</v>
@@ -609,43 +609,43 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>10.57985294228719</v>
+        <v>11.90380088753444</v>
       </c>
       <c r="C6">
-        <v>6.926391260935559</v>
+        <v>8.831111265272348</v>
       </c>
       <c r="D6">
-        <v>6.385574023689522</v>
+        <v>4.6143257824335</v>
       </c>
       <c r="E6">
-        <v>10.81885869001654</v>
+        <v>11.6540461556031</v>
       </c>
       <c r="F6">
-        <v>32.92769344303189</v>
+        <v>27.11832144157055</v>
       </c>
       <c r="G6">
         <v>0</v>
       </c>
       <c r="H6">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I6">
-        <v>26.04336905068478</v>
+        <v>19.19015013672476</v>
       </c>
       <c r="J6">
         <v>0</v>
       </c>
       <c r="K6">
-        <v>11.38026219553631</v>
+        <v>11.26120479412411</v>
       </c>
       <c r="L6">
         <v>0</v>
       </c>
       <c r="M6">
-        <v>14.77883708267218</v>
+        <v>13.23607242275624</v>
       </c>
       <c r="N6">
-        <v>20.94283646129544</v>
+        <v>14.42459174910344</v>
       </c>
       <c r="O6">
         <v>0</v>
@@ -656,43 +656,43 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>10.65002866439173</v>
+        <v>12.20637821406167</v>
       </c>
       <c r="C7">
-        <v>6.992602602544845</v>
+        <v>9.061002388586363</v>
       </c>
       <c r="D7">
-        <v>6.384106592574565</v>
+        <v>4.600698684122455</v>
       </c>
       <c r="E7">
-        <v>10.87910679910252</v>
+        <v>11.90456087505243</v>
       </c>
       <c r="F7">
-        <v>32.95950089161897</v>
+        <v>27.38737525579742</v>
       </c>
       <c r="G7">
         <v>0</v>
       </c>
       <c r="H7">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I7">
-        <v>26.0389449449432</v>
+        <v>19.26094615464918</v>
       </c>
       <c r="J7">
         <v>0</v>
       </c>
       <c r="K7">
-        <v>11.42732321847624</v>
+        <v>11.54000090745841</v>
       </c>
       <c r="L7">
         <v>0</v>
       </c>
       <c r="M7">
-        <v>14.82151236614231</v>
+        <v>13.56532730285749</v>
       </c>
       <c r="N7">
-        <v>20.92733079318943</v>
+        <v>14.37561859042655</v>
       </c>
       <c r="O7">
         <v>0</v>
@@ -703,43 +703,43 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>10.96132898094371</v>
+        <v>13.46978081481282</v>
       </c>
       <c r="C8">
-        <v>7.282522458804448</v>
+        <v>10.02404949326576</v>
       </c>
       <c r="D8">
-        <v>6.377682791312759</v>
+        <v>4.540292783680862</v>
       </c>
       <c r="E8">
-        <v>11.14905838544905</v>
+        <v>12.97631007465188</v>
       </c>
       <c r="F8">
-        <v>33.11758968645424</v>
+        <v>28.5964162314117</v>
       </c>
       <c r="G8">
         <v>0</v>
       </c>
       <c r="H8">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I8">
-        <v>26.03051996356074</v>
+        <v>19.60240875100815</v>
       </c>
       <c r="J8">
         <v>0</v>
       </c>
       <c r="K8">
-        <v>11.63990096958488</v>
+        <v>12.70549032152115</v>
       </c>
       <c r="L8">
         <v>0</v>
       </c>
       <c r="M8">
-        <v>15.01763489671001</v>
+        <v>14.94435597806727</v>
       </c>
       <c r="N8">
-        <v>20.86307112705746</v>
+        <v>14.16945889997175</v>
       </c>
       <c r="O8">
         <v>0</v>
@@ -750,43 +750,43 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>11.57128493093081</v>
+        <v>15.69506364002539</v>
       </c>
       <c r="C9">
-        <v>7.836600268301091</v>
+        <v>11.73266278664535</v>
       </c>
       <c r="D9">
-        <v>6.365257980602368</v>
+        <v>4.419729186871764</v>
       </c>
       <c r="E9">
-        <v>11.68807213035458</v>
+        <v>15.17858996162508</v>
       </c>
       <c r="F9">
-        <v>33.48998794826809</v>
+        <v>31.03250929926942</v>
       </c>
       <c r="G9">
         <v>0</v>
       </c>
       <c r="H9">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I9">
-        <v>26.05394463608835</v>
+        <v>20.38165237502632</v>
       </c>
       <c r="J9">
         <v>0</v>
       </c>
       <c r="K9">
-        <v>12.07078432531332</v>
+        <v>14.76338527731301</v>
       </c>
       <c r="L9">
         <v>0</v>
       </c>
       <c r="M9">
-        <v>15.42748970908411</v>
+        <v>17.39003117230752</v>
       </c>
       <c r="N9">
-        <v>20.75201045912927</v>
+        <v>13.80300994856603</v>
       </c>
       <c r="O9">
         <v>0</v>
@@ -797,43 +797,43 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>12.01373217978522</v>
+        <v>17.18204165745605</v>
       </c>
       <c r="C10">
-        <v>8.229830199128955</v>
+        <v>12.8834632419327</v>
       </c>
       <c r="D10">
-        <v>6.356221315688481</v>
+        <v>4.328673428739424</v>
       </c>
       <c r="E10">
-        <v>12.08552788236733</v>
+        <v>16.70209440222382</v>
       </c>
       <c r="F10">
-        <v>33.80020555910967</v>
+        <v>32.8529715001476</v>
       </c>
       <c r="G10">
         <v>0</v>
       </c>
       <c r="H10">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I10">
-        <v>26.09552222169432</v>
+        <v>21.02565397111067</v>
       </c>
       <c r="J10">
         <v>0</v>
       </c>
       <c r="K10">
-        <v>12.39263563988687</v>
+        <v>16.14196241169585</v>
       </c>
       <c r="L10">
         <v>0</v>
       </c>
       <c r="M10">
-        <v>15.74137279413268</v>
+        <v>19.03662450236176</v>
       </c>
       <c r="N10">
-        <v>20.67951803343161</v>
+        <v>13.55922910999998</v>
       </c>
       <c r="O10">
         <v>0</v>
@@ -844,43 +844,43 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>12.21272592008276</v>
+        <v>17.82775998894624</v>
       </c>
       <c r="C11">
-        <v>8.40479135985964</v>
+        <v>13.38556922089224</v>
       </c>
       <c r="D11">
-        <v>6.352127407666846</v>
+        <v>4.286414199913303</v>
       </c>
       <c r="E11">
-        <v>12.26575487718646</v>
+        <v>17.36933080416399</v>
       </c>
       <c r="F11">
-        <v>33.94892998160799</v>
+        <v>33.68661603307523</v>
       </c>
       <c r="G11">
         <v>0</v>
       </c>
       <c r="H11">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I11">
-        <v>26.11971907741258</v>
+        <v>21.33517464059413</v>
       </c>
       <c r="J11">
         <v>0</v>
       </c>
       <c r="K11">
-        <v>12.53951656960185</v>
+        <v>16.74146593999296</v>
       </c>
       <c r="L11">
         <v>0</v>
       </c>
       <c r="M11">
-        <v>15.88635823635127</v>
+        <v>19.7548957273452</v>
       </c>
       <c r="N11">
-        <v>20.64851411875027</v>
+        <v>13.45450661586876</v>
       </c>
       <c r="O11">
         <v>0</v>
@@ -891,43 +891,43 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>12.28767135265407</v>
+        <v>18.06798193011454</v>
       </c>
       <c r="C12">
-        <v>8.470413656892479</v>
+        <v>13.57274262625399</v>
       </c>
       <c r="D12">
-        <v>6.350579371116578</v>
+        <v>4.270263540378783</v>
       </c>
       <c r="E12">
-        <v>12.33384801025654</v>
+        <v>17.61846605377874</v>
       </c>
       <c r="F12">
-        <v>34.00630835720625</v>
+        <v>34.00304269012062</v>
       </c>
       <c r="G12">
         <v>0</v>
       </c>
       <c r="H12">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I12">
-        <v>26.12963952796233</v>
+        <v>21.45485288187388</v>
       </c>
       <c r="J12">
         <v>0</v>
       </c>
       <c r="K12">
-        <v>12.59514833144282</v>
+        <v>16.96462891883916</v>
       </c>
       <c r="L12">
         <v>0</v>
       </c>
       <c r="M12">
-        <v>15.9415274915184</v>
+        <v>20.02262702095539</v>
       </c>
       <c r="N12">
-        <v>20.6370574388409</v>
+        <v>13.41580500584904</v>
       </c>
       <c r="O12">
         <v>0</v>
@@ -938,43 +938,43 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>12.27154995313977</v>
+        <v>18.01643497538956</v>
       </c>
       <c r="C13">
-        <v>8.456309822894889</v>
+        <v>13.53256134529944</v>
       </c>
       <c r="D13">
-        <v>6.350912672058935</v>
+        <v>4.273748927406638</v>
       </c>
       <c r="E13">
-        <v>12.31919093300028</v>
+        <v>17.56496438532082</v>
       </c>
       <c r="F13">
-        <v>33.99390432991131</v>
+        <v>33.93486173811176</v>
       </c>
       <c r="G13">
         <v>0</v>
       </c>
       <c r="H13">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I13">
-        <v>26.1274693254747</v>
+        <v>21.42896670470253</v>
       </c>
       <c r="J13">
         <v>0</v>
       </c>
       <c r="K13">
-        <v>12.5831674203294</v>
+        <v>16.91673632885315</v>
       </c>
       <c r="L13">
         <v>0</v>
       </c>
       <c r="M13">
-        <v>15.92963474674578</v>
+        <v>19.96515311488896</v>
       </c>
       <c r="N13">
-        <v>20.63951221494228</v>
+        <v>13.42409646523469</v>
       </c>
       <c r="O13">
         <v>0</v>
@@ -985,43 +985,43 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>12.21890037476049</v>
+        <v>17.84760860675973</v>
       </c>
       <c r="C14">
-        <v>8.410203169928252</v>
+        <v>13.40102678629947</v>
       </c>
       <c r="D14">
-        <v>6.352000006038806</v>
+        <v>4.285088610203019</v>
       </c>
       <c r="E14">
-        <v>12.27136044431339</v>
+        <v>17.38989701912672</v>
       </c>
       <c r="F14">
-        <v>33.9536294992811</v>
+        <v>33.71263384989702</v>
       </c>
       <c r="G14">
         <v>0</v>
       </c>
       <c r="H14">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I14">
-        <v>26.12052006899685</v>
+        <v>21.34497061434481</v>
       </c>
       <c r="J14">
         <v>0</v>
       </c>
       <c r="K14">
-        <v>12.54409352177279</v>
+        <v>16.7599022754887</v>
       </c>
       <c r="L14">
         <v>0</v>
       </c>
       <c r="M14">
-        <v>15.89089198920226</v>
+        <v>19.77700658131718</v>
       </c>
       <c r="N14">
-        <v>20.64756588190275</v>
+        <v>13.45130306251292</v>
       </c>
       <c r="O14">
         <v>0</v>
@@ -1032,43 +1032,43 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>12.18659537043947</v>
+        <v>17.74364160440901</v>
       </c>
       <c r="C15">
-        <v>8.381877352659052</v>
+        <v>13.32007573431351</v>
       </c>
       <c r="D15">
-        <v>6.352666315120602</v>
+        <v>4.292014349950509</v>
       </c>
       <c r="E15">
-        <v>12.24204064014908</v>
+        <v>17.28220877381484</v>
       </c>
       <c r="F15">
-        <v>33.92909696109533</v>
+        <v>33.57660906104404</v>
       </c>
       <c r="G15">
         <v>0</v>
       </c>
       <c r="H15">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I15">
-        <v>26.11636204184828</v>
+        <v>21.29384494133608</v>
       </c>
       <c r="J15">
         <v>0</v>
       </c>
       <c r="K15">
-        <v>12.52015943706397</v>
+        <v>16.66333832120875</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
       <c r="M15">
-        <v>15.86719415273363</v>
+        <v>19.66121138909449</v>
       </c>
       <c r="N15">
-        <v>20.65253595117035</v>
+        <v>13.46809434965099</v>
       </c>
       <c r="O15">
         <v>0</v>
@@ -1079,43 +1079,43 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>12.00067453443097</v>
+        <v>17.13923436499671</v>
       </c>
       <c r="C16">
-        <v>8.218311214408192</v>
+        <v>12.85022833104708</v>
       </c>
       <c r="D16">
-        <v>6.35648918591551</v>
+        <v>4.331416024653624</v>
       </c>
       <c r="E16">
-        <v>12.07373178104736</v>
+        <v>16.65798441347965</v>
       </c>
       <c r="F16">
-        <v>33.79063624652447</v>
+        <v>32.79859648421477</v>
       </c>
       <c r="G16">
         <v>0</v>
       </c>
       <c r="H16">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I16">
-        <v>26.09404704614768</v>
+        <v>21.00576665855277</v>
       </c>
       <c r="J16">
         <v>0</v>
       </c>
       <c r="K16">
-        <v>12.38304121657602</v>
+        <v>16.10223734535577</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
       <c r="M16">
-        <v>15.73193764151433</v>
+        <v>18.98907812678387</v>
       </c>
       <c r="N16">
-        <v>20.6815839252436</v>
+        <v>13.56620268572853</v>
       </c>
       <c r="O16">
         <v>0</v>
@@ -1126,43 +1126,43 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>11.88597494150143</v>
+        <v>16.76066523369053</v>
       </c>
       <c r="C17">
-        <v>8.116913904412778</v>
+        <v>12.5565891507401</v>
       </c>
       <c r="D17">
-        <v>6.358838586993137</v>
+        <v>4.355354449232916</v>
       </c>
       <c r="E17">
-        <v>11.9702796125653</v>
+        <v>16.26855347089021</v>
       </c>
       <c r="F17">
-        <v>33.7076194115527</v>
+        <v>32.32267238247468</v>
       </c>
       <c r="G17">
         <v>0</v>
       </c>
       <c r="H17">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I17">
-        <v>26.08170935970577</v>
+        <v>20.83334184616431</v>
       </c>
       <c r="J17">
         <v>0</v>
       </c>
       <c r="K17">
-        <v>12.29900324166704</v>
+        <v>15.75102550622544</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17">
-        <v>15.64948984815154</v>
+        <v>18.56897561296691</v>
       </c>
       <c r="N17">
-        <v>20.69990936259458</v>
+        <v>13.6280147106055</v>
       </c>
       <c r="O17">
         <v>0</v>
@@ -1173,43 +1173,43 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>11.81979292431559</v>
+        <v>16.54002356269707</v>
       </c>
       <c r="C18">
-        <v>8.058227384880203</v>
+        <v>12.38567407197366</v>
       </c>
       <c r="D18">
-        <v>6.360191504110305</v>
+        <v>4.36904618167886</v>
       </c>
       <c r="E18">
-        <v>11.91072638856319</v>
+        <v>16.04212165460158</v>
       </c>
       <c r="F18">
-        <v>33.66058829691567</v>
+        <v>32.04945188925436</v>
       </c>
       <c r="G18">
         <v>0</v>
       </c>
       <c r="H18">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I18">
-        <v>26.07511047416149</v>
+        <v>20.73572082502616</v>
       </c>
       <c r="J18">
         <v>0</v>
       </c>
       <c r="K18">
-        <v>12.25071426368483</v>
+        <v>15.54641072778244</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
       <c r="M18">
-        <v>15.60227797015992</v>
+        <v>18.3244367311903</v>
       </c>
       <c r="N18">
-        <v>20.71063539514311</v>
+        <v>13.66414398017061</v>
       </c>
       <c r="O18">
         <v>0</v>
@@ -1220,43 +1220,43 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>11.79735136555714</v>
+        <v>16.46481673614367</v>
       </c>
       <c r="C19">
-        <v>8.03829654975589</v>
+        <v>12.32745465307784</v>
       </c>
       <c r="D19">
-        <v>6.36064986002314</v>
+        <v>4.373669532961793</v>
       </c>
       <c r="E19">
-        <v>11.89055630057129</v>
+        <v>15.96503124285012</v>
       </c>
       <c r="F19">
-        <v>33.6447886814061</v>
+        <v>31.95703540653003</v>
       </c>
       <c r="G19">
         <v>0</v>
       </c>
       <c r="H19">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I19">
-        <v>26.07296169058808</v>
+        <v>20.70293222962513</v>
       </c>
       <c r="J19">
         <v>0</v>
       </c>
       <c r="K19">
-        <v>12.2343743347574</v>
+        <v>15.47668056215435</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>15.58633040763114</v>
+        <v>18.24113607168898</v>
       </c>
       <c r="N19">
-        <v>20.71429894206963</v>
+        <v>13.67647389939016</v>
       </c>
       <c r="O19">
         <v>0</v>
@@ -1267,43 +1267,43 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>11.89820723574966</v>
+        <v>16.80126373484895</v>
       </c>
       <c r="C20">
-        <v>8.1277461593296</v>
+        <v>12.58805597794928</v>
       </c>
       <c r="D20">
-        <v>6.358588324649907</v>
+        <v>4.352814324485483</v>
       </c>
       <c r="E20">
-        <v>11.98129800695614</v>
+        <v>16.31026049810786</v>
       </c>
       <c r="F20">
-        <v>33.71638262682124</v>
+        <v>32.3732821564121</v>
       </c>
       <c r="G20">
         <v>0</v>
       </c>
       <c r="H20">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I20">
-        <v>26.08297125865548</v>
+        <v>20.85153540309502</v>
       </c>
       <c r="J20">
         <v>0</v>
       </c>
       <c r="K20">
-        <v>12.30794473033931</v>
+        <v>15.78868161728284</v>
       </c>
       <c r="L20">
         <v>0</v>
       </c>
       <c r="M20">
-        <v>15.65824519176658</v>
+        <v>18.61399597902772</v>
       </c>
       <c r="N20">
-        <v>20.69793936605076</v>
+        <v>13.62137458585231</v>
       </c>
       <c r="O20">
         <v>0</v>
@@ -1314,43 +1314,43 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>12.23437656082089</v>
+        <v>17.89731264269835</v>
       </c>
       <c r="C21">
-        <v>8.423763462058115</v>
+        <v>13.43974113457402</v>
       </c>
       <c r="D21">
-        <v>6.351680570512888</v>
+        <v>4.281762121815606</v>
       </c>
       <c r="E21">
-        <v>12.28541417822954</v>
+        <v>17.4414129043999</v>
       </c>
       <c r="F21">
-        <v>33.96543071460216</v>
+        <v>33.77788753636958</v>
       </c>
       <c r="G21">
         <v>0</v>
       </c>
       <c r="H21">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I21">
-        <v>26.1225406919414</v>
+        <v>21.3695745365594</v>
       </c>
       <c r="J21">
         <v>0</v>
       </c>
       <c r="K21">
-        <v>12.55557061151389</v>
+        <v>16.80607191939522</v>
       </c>
       <c r="L21">
         <v>0</v>
       </c>
       <c r="M21">
-        <v>15.90226484147329</v>
+        <v>19.83238408782115</v>
       </c>
       <c r="N21">
-        <v>20.64519262089702</v>
+        <v>13.44328533745625</v>
       </c>
       <c r="O21">
         <v>0</v>
@@ -1361,43 +1361,43 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>12.45166364124577</v>
+        <v>18.58865656740574</v>
       </c>
       <c r="C22">
-        <v>8.613519207751352</v>
+        <v>13.97915549623251</v>
       </c>
       <c r="D22">
-        <v>6.347178906249054</v>
+        <v>4.234447703349501</v>
       </c>
       <c r="E22">
-        <v>12.48323786679784</v>
+        <v>18.16019202483291</v>
       </c>
       <c r="F22">
-        <v>34.13435745252261</v>
+        <v>34.70022471964689</v>
       </c>
       <c r="G22">
         <v>0</v>
       </c>
       <c r="H22">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I22">
-        <v>26.15281621964313</v>
+        <v>21.72258488095104</v>
       </c>
       <c r="J22">
         <v>0</v>
       </c>
       <c r="K22">
-        <v>12.71744844515387</v>
+        <v>17.44858060530958</v>
       </c>
       <c r="L22">
         <v>0</v>
       </c>
       <c r="M22">
-        <v>16.06327574614066</v>
+        <v>20.60391332321684</v>
       </c>
       <c r="N22">
-        <v>20.61237400298425</v>
+        <v>13.33249606093951</v>
       </c>
       <c r="O22">
         <v>0</v>
@@ -1408,43 +1408,43 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>12.33594033661308</v>
+        <v>18.22191779798711</v>
       </c>
       <c r="C23">
-        <v>8.512602981347941</v>
+        <v>13.69279420540868</v>
       </c>
       <c r="D23">
-        <v>6.349580408270223</v>
+        <v>4.259790510564225</v>
       </c>
       <c r="E23">
-        <v>12.37776391638431</v>
+        <v>17.77837716733723</v>
       </c>
       <c r="F23">
-        <v>34.04364620360418</v>
+        <v>34.20756172707419</v>
       </c>
       <c r="G23">
         <v>0</v>
       </c>
       <c r="H23">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I23">
-        <v>26.13625451100947</v>
+        <v>21.53282367667423</v>
       </c>
       <c r="J23">
         <v>0</v>
       </c>
       <c r="K23">
-        <v>12.63106571894821</v>
+        <v>17.10767175409667</v>
       </c>
       <c r="L23">
         <v>0</v>
       </c>
       <c r="M23">
-        <v>15.9772175853352</v>
+        <v>20.19434116227627</v>
       </c>
       <c r="N23">
-        <v>20.62973850494506</v>
+        <v>13.39108898551394</v>
       </c>
       <c r="O23">
         <v>0</v>
@@ -1455,43 +1455,43 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>11.89267775581735</v>
+        <v>16.78291849709515</v>
       </c>
       <c r="C24">
-        <v>8.12285011221071</v>
+        <v>12.57383636865421</v>
       </c>
       <c r="D24">
-        <v>6.358701461303211</v>
+        <v>4.353962933323168</v>
       </c>
       <c r="E24">
-        <v>11.97631682584299</v>
+        <v>16.29141268460912</v>
       </c>
       <c r="F24">
-        <v>33.71241860535039</v>
+        <v>32.35040024418915</v>
       </c>
       <c r="G24">
         <v>0</v>
       </c>
       <c r="H24">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I24">
-        <v>26.08239921441788</v>
+        <v>20.84330540451664</v>
       </c>
       <c r="J24">
         <v>0</v>
       </c>
       <c r="K24">
-        <v>12.30390219931331</v>
+        <v>15.77166570303449</v>
       </c>
       <c r="L24">
         <v>0</v>
       </c>
       <c r="M24">
-        <v>15.65428631009758</v>
+        <v>18.59365167888723</v>
       </c>
       <c r="N24">
-        <v>20.69882940802636</v>
+        <v>13.62437474499188</v>
       </c>
       <c r="O24">
         <v>0</v>
@@ -1502,43 +1502,43 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>11.4069011802228</v>
+        <v>15.11948740561667</v>
       </c>
       <c r="C25">
-        <v>7.688803054119189</v>
+        <v>11.28919331979003</v>
       </c>
       <c r="D25">
-        <v>6.368602145547875</v>
+        <v>4.452686901376584</v>
       </c>
       <c r="E25">
-        <v>11.54168738711931</v>
+        <v>14.59355952178056</v>
       </c>
       <c r="F25">
-        <v>33.38270164401249</v>
+        <v>30.36755983603478</v>
       </c>
       <c r="G25">
         <v>0</v>
       </c>
       <c r="H25">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I25">
-        <v>26.04332712664095</v>
+        <v>20.15862607149326</v>
       </c>
       <c r="J25">
         <v>0</v>
       </c>
       <c r="K25">
-        <v>11.9530562154802</v>
+        <v>14.23050573482944</v>
       </c>
       <c r="L25">
         <v>0</v>
       </c>
       <c r="M25">
-        <v>15.31417686407633</v>
+        <v>16.75536954066732</v>
       </c>
       <c r="N25">
-        <v>20.78045583283116</v>
+        <v>13.89787062939045</v>
       </c>
       <c r="O25">
         <v>0</v>
